--- a/socis/procediments/Pla_de_Viabilitat_ FICTIOPTICS.xlsx
+++ b/socis/procediments/Pla_de_Viabilitat_ FICTIOPTICS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubAsencat\asencat\socis\procediments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE430F86-3A1F-41D1-B29D-E9C3C22C9666}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CC8D1F-EB8F-4623-AE43-53D04DC5D267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1035" windowWidth="15375" windowHeight="9900" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="2340" windowWidth="12390" windowHeight="7785" tabRatio="795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCCIONS" sheetId="12" r:id="rId1"/>
@@ -5206,6 +5206,30 @@
     <xf numFmtId="4" fontId="37" fillId="10" borderId="157" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="37" fillId="10" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="37" fillId="10" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="29" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -5427,30 +5451,6 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7465,7 +7465,7 @@
   </sheetPr>
   <dimension ref="B7:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScalePageLayoutView="40" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -7476,168 +7476,168 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:2" ht="30.75" customHeight="1">
-      <c r="B7" s="730" t="s">
+      <c r="B7" s="647" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="5.25" customHeight="1">
-      <c r="B8" s="731"/>
+      <c r="B8" s="648"/>
     </row>
     <row r="9" spans="2:2" ht="24.75" customHeight="1">
-      <c r="B9" s="732" t="s">
+      <c r="B9" s="649" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="5.25" customHeight="1">
-      <c r="B10" s="733"/>
+      <c r="B10" s="650"/>
     </row>
     <row r="11" spans="2:2" ht="15">
-      <c r="B11" s="734" t="s">
+      <c r="B11" s="651" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="45">
-      <c r="B12" s="735" t="s">
+      <c r="B12" s="652" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="30">
-      <c r="B13" s="735" t="s">
+      <c r="B13" s="652" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="12.75" customHeight="1">
-      <c r="B14" s="736" t="s">
+      <c r="B14" s="653" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="15">
-      <c r="B15" s="736" t="s">
+      <c r="B15" s="653" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="30">
-      <c r="B16" s="735" t="s">
+      <c r="B16" s="652" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="15">
-      <c r="B17" s="736" t="s">
+      <c r="B17" s="653" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="3.75" customHeight="1">
-      <c r="B18" s="735"/>
+      <c r="B18" s="652"/>
     </row>
     <row r="19" spans="2:2" ht="15">
-      <c r="B19" s="734" t="s">
+      <c r="B19" s="651" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15">
-      <c r="B20" s="736" t="s">
+      <c r="B20" s="653" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="15">
-      <c r="B21" s="736" t="s">
+      <c r="B21" s="653" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="15">
-      <c r="B22" s="736" t="s">
+      <c r="B22" s="653" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="15">
-      <c r="B23" s="736" t="s">
+      <c r="B23" s="653" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="15">
-      <c r="B24" s="736" t="s">
+      <c r="B24" s="653" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="15">
-      <c r="B25" s="736" t="s">
+      <c r="B25" s="653" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="15">
-      <c r="B26" s="736" t="s">
+      <c r="B26" s="653" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="30">
-      <c r="B27" s="735" t="s">
+      <c r="B27" s="652" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="30">
-      <c r="B28" s="735" t="s">
+      <c r="B28" s="652" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="30">
-      <c r="B29" s="735" t="s">
+      <c r="B29" s="652" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="14.25" customHeight="1">
-      <c r="B30" s="736" t="s">
+      <c r="B30" s="653" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="4.5" customHeight="1">
-      <c r="B31" s="735"/>
+      <c r="B31" s="652"/>
     </row>
     <row r="32" spans="2:2" ht="15">
-      <c r="B32" s="734" t="s">
+      <c r="B32" s="651" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="30">
-      <c r="B33" s="735" t="s">
+      <c r="B33" s="652" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="15">
-      <c r="B34" s="736" t="s">
+      <c r="B34" s="653" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="4.5" customHeight="1">
-      <c r="B35" s="735"/>
+      <c r="B35" s="652"/>
     </row>
     <row r="36" spans="2:2" ht="15">
-      <c r="B36" s="734" t="s">
+      <c r="B36" s="651" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="37" spans="2:2" ht="17.25" customHeight="1">
-      <c r="B37" s="736" t="s">
+      <c r="B37" s="653" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="3.75" customHeight="1">
-      <c r="B38" s="735"/>
+      <c r="B38" s="652"/>
     </row>
     <row r="39" spans="2:2" ht="15">
-      <c r="B39" s="734" t="s">
+      <c r="B39" s="651" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="15">
-      <c r="B40" s="736" t="s">
+      <c r="B40" s="653" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="13.5" customHeight="1">
-      <c r="B41" s="736"/>
+      <c r="B41" s="653"/>
     </row>
     <row r="42" spans="2:2" ht="15">
-      <c r="B42" s="737" t="s">
+      <c r="B42" s="654" t="s">
         <v>317</v>
       </c>
     </row>
@@ -7682,11 +7682,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="20.25" customHeight="1">
-      <c r="C2" s="647" t="s">
+      <c r="C2" s="655" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="648"/>
-      <c r="E2" s="648"/>
+      <c r="D2" s="656"/>
+      <c r="E2" s="656"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -7716,24 +7716,24 @@
       <c r="P3" s="4"/>
     </row>
     <row r="4" spans="2:22" ht="19.5" customHeight="1" thickBot="1">
-      <c r="C4" s="661" t="s">
+      <c r="C4" s="669" t="s">
         <v>256</v>
       </c>
-      <c r="D4" s="662"/>
-      <c r="E4" s="662"/>
-      <c r="F4" s="662"/>
-      <c r="G4" s="662"/>
-      <c r="H4" s="662"/>
-      <c r="I4" s="662"/>
-      <c r="J4" s="662"/>
-      <c r="K4" s="663"/>
-      <c r="L4" s="663"/>
-      <c r="M4" s="663"/>
-      <c r="N4" s="663"/>
-      <c r="O4" s="663"/>
-      <c r="P4" s="663"/>
-      <c r="Q4" s="663"/>
-      <c r="R4" s="664"/>
+      <c r="D4" s="670"/>
+      <c r="E4" s="670"/>
+      <c r="F4" s="670"/>
+      <c r="G4" s="670"/>
+      <c r="H4" s="670"/>
+      <c r="I4" s="670"/>
+      <c r="J4" s="670"/>
+      <c r="K4" s="671"/>
+      <c r="L4" s="671"/>
+      <c r="M4" s="671"/>
+      <c r="N4" s="671"/>
+      <c r="O4" s="671"/>
+      <c r="P4" s="671"/>
+      <c r="Q4" s="671"/>
+      <c r="R4" s="672"/>
     </row>
     <row r="5" spans="2:22" ht="9" customHeight="1">
       <c r="C5" s="158"/>
@@ -7777,26 +7777,26 @@
     </row>
     <row r="7" spans="2:22" ht="21" thickBot="1">
       <c r="B7" s="165"/>
-      <c r="C7" s="655" t="s">
+      <c r="C7" s="663" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="656"/>
-      <c r="E7" s="656"/>
-      <c r="F7" s="656"/>
-      <c r="G7" s="656"/>
-      <c r="H7" s="657"/>
+      <c r="D7" s="664"/>
+      <c r="E7" s="664"/>
+      <c r="F7" s="664"/>
+      <c r="G7" s="664"/>
+      <c r="H7" s="665"/>
       <c r="I7" s="183"/>
       <c r="J7" s="182"/>
       <c r="K7" s="205"/>
-      <c r="L7" s="658" t="s">
+      <c r="L7" s="666" t="s">
         <v>99</v>
       </c>
-      <c r="M7" s="659"/>
-      <c r="N7" s="659"/>
-      <c r="O7" s="659"/>
-      <c r="P7" s="659"/>
-      <c r="Q7" s="659"/>
-      <c r="R7" s="660"/>
+      <c r="M7" s="667"/>
+      <c r="N7" s="667"/>
+      <c r="O7" s="667"/>
+      <c r="P7" s="667"/>
+      <c r="Q7" s="667"/>
+      <c r="R7" s="668"/>
       <c r="S7" s="204"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
@@ -8686,24 +8686,24 @@
       <c r="U39" s="4"/>
     </row>
     <row r="40" spans="2:21" ht="21" thickBot="1">
-      <c r="C40" s="652" t="s">
+      <c r="C40" s="660" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="653"/>
-      <c r="G40" s="654" t="s">
+      <c r="D40" s="661"/>
+      <c r="G40" s="662" t="s">
         <v>244</v>
       </c>
-      <c r="H40" s="650"/>
-      <c r="I40" s="650"/>
-      <c r="J40" s="650"/>
-      <c r="K40" s="650"/>
-      <c r="L40" s="651"/>
-      <c r="O40" s="649" t="s">
+      <c r="H40" s="658"/>
+      <c r="I40" s="658"/>
+      <c r="J40" s="658"/>
+      <c r="K40" s="658"/>
+      <c r="L40" s="659"/>
+      <c r="O40" s="657" t="s">
         <v>91</v>
       </c>
-      <c r="P40" s="650"/>
-      <c r="Q40" s="650"/>
-      <c r="R40" s="651"/>
+      <c r="P40" s="658"/>
+      <c r="Q40" s="658"/>
+      <c r="R40" s="659"/>
     </row>
     <row r="41" spans="2:21" ht="13.5" thickBot="1"/>
     <row r="42" spans="2:21">
@@ -9588,12 +9588,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" ht="18">
-      <c r="C2" s="665" t="str">
+      <c r="C2" s="673" t="str">
         <f>'Inversió inicial'!C2</f>
         <v xml:space="preserve">EMPRESA: </v>
       </c>
-      <c r="D2" s="666"/>
-      <c r="E2" s="666"/>
+      <c r="D2" s="674"/>
+      <c r="E2" s="674"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
@@ -9621,30 +9621,30 @@
       <c r="U3" s="22"/>
     </row>
     <row r="4" spans="2:25" ht="22.5" customHeight="1">
-      <c r="C4" s="667" t="s">
+      <c r="C4" s="675" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="668"/>
-      <c r="E4" s="668"/>
-      <c r="F4" s="668"/>
-      <c r="G4" s="668"/>
-      <c r="H4" s="668"/>
-      <c r="I4" s="668"/>
-      <c r="J4" s="668"/>
-      <c r="K4" s="668"/>
-      <c r="L4" s="668"/>
-      <c r="M4" s="668"/>
-      <c r="N4" s="668"/>
-      <c r="O4" s="668"/>
-      <c r="P4" s="668"/>
-      <c r="Q4" s="668"/>
-      <c r="R4" s="668"/>
-      <c r="S4" s="668"/>
-      <c r="T4" s="668"/>
-      <c r="U4" s="668"/>
-      <c r="V4" s="668"/>
-      <c r="W4" s="669"/>
-      <c r="X4" s="669"/>
+      <c r="D4" s="676"/>
+      <c r="E4" s="676"/>
+      <c r="F4" s="676"/>
+      <c r="G4" s="676"/>
+      <c r="H4" s="676"/>
+      <c r="I4" s="676"/>
+      <c r="J4" s="676"/>
+      <c r="K4" s="676"/>
+      <c r="L4" s="676"/>
+      <c r="M4" s="676"/>
+      <c r="N4" s="676"/>
+      <c r="O4" s="676"/>
+      <c r="P4" s="676"/>
+      <c r="Q4" s="676"/>
+      <c r="R4" s="676"/>
+      <c r="S4" s="676"/>
+      <c r="T4" s="676"/>
+      <c r="U4" s="676"/>
+      <c r="V4" s="676"/>
+      <c r="W4" s="677"/>
+      <c r="X4" s="677"/>
       <c r="Y4" s="243"/>
     </row>
     <row r="5" spans="2:25" ht="11.25" customHeight="1">
@@ -9700,34 +9700,34 @@
     </row>
     <row r="7" spans="2:25" ht="20.25">
       <c r="B7" s="231"/>
-      <c r="C7" s="682" t="s">
+      <c r="C7" s="690" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="683"/>
-      <c r="E7" s="683"/>
-      <c r="F7" s="683"/>
-      <c r="G7" s="683"/>
-      <c r="H7" s="683"/>
-      <c r="I7" s="683"/>
-      <c r="J7" s="683"/>
+      <c r="D7" s="691"/>
+      <c r="E7" s="691"/>
+      <c r="F7" s="691"/>
+      <c r="G7" s="691"/>
+      <c r="H7" s="691"/>
+      <c r="I7" s="691"/>
+      <c r="J7" s="691"/>
       <c r="K7" s="8"/>
       <c r="L7" s="245"/>
       <c r="M7" s="7"/>
-      <c r="N7" s="680" t="s">
+      <c r="N7" s="688" t="s">
         <v>123</v>
       </c>
-      <c r="O7" s="681"/>
-      <c r="P7" s="681"/>
-      <c r="Q7" s="681"/>
+      <c r="O7" s="689"/>
+      <c r="P7" s="689"/>
+      <c r="Q7" s="689"/>
       <c r="R7" s="321"/>
       <c r="S7" s="321"/>
       <c r="T7" s="8"/>
-      <c r="U7" s="678" t="s">
+      <c r="U7" s="686" t="s">
         <v>129</v>
       </c>
-      <c r="V7" s="679"/>
-      <c r="W7" s="679"/>
-      <c r="X7" s="679"/>
+      <c r="V7" s="687"/>
+      <c r="W7" s="687"/>
+      <c r="X7" s="687"/>
       <c r="Y7" s="232"/>
     </row>
     <row r="8" spans="2:25">
@@ -9760,46 +9760,46 @@
       <c r="B9" s="231"/>
       <c r="C9" s="203"/>
       <c r="D9" s="252"/>
-      <c r="E9" s="684" t="s">
+      <c r="E9" s="692" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="685"/>
-      <c r="G9" s="685"/>
+      <c r="F9" s="693"/>
+      <c r="G9" s="693"/>
       <c r="H9" s="203"/>
       <c r="I9" s="203"/>
       <c r="J9" s="203"/>
       <c r="K9" s="8"/>
       <c r="L9" s="245"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="687" t="s">
+      <c r="N9" s="695" t="s">
         <v>124</v>
       </c>
-      <c r="O9" s="686"/>
-      <c r="P9" s="684" t="s">
+      <c r="O9" s="694"/>
+      <c r="P9" s="692" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="686"/>
+      <c r="Q9" s="694"/>
       <c r="R9" s="309"/>
       <c r="S9" s="309"/>
       <c r="T9" s="203"/>
-      <c r="U9" s="687" t="s">
+      <c r="U9" s="695" t="s">
         <v>130</v>
       </c>
-      <c r="V9" s="686"/>
-      <c r="W9" s="684" t="s">
+      <c r="V9" s="694"/>
+      <c r="W9" s="692" t="s">
         <v>131</v>
       </c>
-      <c r="X9" s="686"/>
+      <c r="X9" s="694"/>
       <c r="Y9" s="232"/>
     </row>
     <row r="10" spans="2:25" ht="14.25" customHeight="1">
       <c r="B10" s="231"/>
       <c r="C10" s="203"/>
       <c r="D10" s="252"/>
-      <c r="E10" s="684" t="s">
+      <c r="E10" s="692" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="685"/>
+      <c r="F10" s="693"/>
       <c r="G10" s="253">
         <v>26</v>
       </c>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="12" spans="2:25">
       <c r="B12" s="231"/>
-      <c r="C12" s="670" t="s">
+      <c r="C12" s="678" t="s">
         <v>107</v>
       </c>
       <c r="D12" s="254" t="s">
@@ -9928,7 +9928,7 @@
     </row>
     <row r="13" spans="2:25">
       <c r="B13" s="231"/>
-      <c r="C13" s="671"/>
+      <c r="C13" s="679"/>
       <c r="D13" s="255" t="s">
         <v>113</v>
       </c>
@@ -11114,34 +11114,34 @@
     <row r="43" spans="1:25" ht="20.25">
       <c r="A43" s="328"/>
       <c r="B43" s="55"/>
-      <c r="C43" s="672" t="s">
+      <c r="C43" s="680" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="673"/>
-      <c r="E43" s="673"/>
-      <c r="F43" s="673"/>
-      <c r="G43" s="673"/>
-      <c r="H43" s="673"/>
+      <c r="D43" s="681"/>
+      <c r="E43" s="681"/>
+      <c r="F43" s="681"/>
+      <c r="G43" s="681"/>
+      <c r="H43" s="681"/>
       <c r="I43" s="52"/>
       <c r="J43" s="53"/>
       <c r="K43" s="53"/>
       <c r="L43" s="345"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="674" t="s">
+      <c r="N43" s="682" t="s">
         <v>132</v>
       </c>
-      <c r="O43" s="675"/>
-      <c r="P43" s="675"/>
-      <c r="Q43" s="675"/>
+      <c r="O43" s="683"/>
+      <c r="P43" s="683"/>
+      <c r="Q43" s="683"/>
       <c r="R43" s="353"/>
       <c r="S43" s="353"/>
       <c r="T43" s="358"/>
-      <c r="U43" s="676" t="s">
+      <c r="U43" s="684" t="s">
         <v>133</v>
       </c>
-      <c r="V43" s="677"/>
-      <c r="W43" s="677"/>
-      <c r="X43" s="677"/>
+      <c r="V43" s="685"/>
+      <c r="W43" s="685"/>
+      <c r="X43" s="685"/>
       <c r="Y43" s="328"/>
     </row>
     <row r="44" spans="1:25">
@@ -11617,12 +11617,12 @@
     <row r="3" spans="1:15" ht="18">
       <c r="A3" s="4"/>
       <c r="B3" s="358"/>
-      <c r="C3" s="692" t="str">
+      <c r="C3" s="700" t="str">
         <f>'Inversió inicial'!C2</f>
         <v xml:space="preserve">EMPRESA: </v>
       </c>
-      <c r="D3" s="693"/>
-      <c r="E3" s="693"/>
+      <c r="D3" s="701"/>
+      <c r="E3" s="701"/>
       <c r="F3" s="402"/>
       <c r="G3" s="402"/>
       <c r="H3" s="402"/>
@@ -11654,18 +11654,18 @@
     <row r="5" spans="1:15" ht="21" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="358"/>
-      <c r="C5" s="694" t="s">
+      <c r="C5" s="702" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="695"/>
-      <c r="E5" s="695"/>
-      <c r="F5" s="695"/>
-      <c r="G5" s="695"/>
-      <c r="H5" s="695"/>
-      <c r="I5" s="695"/>
-      <c r="J5" s="695"/>
-      <c r="K5" s="695"/>
-      <c r="L5" s="695"/>
+      <c r="D5" s="703"/>
+      <c r="E5" s="703"/>
+      <c r="F5" s="703"/>
+      <c r="G5" s="703"/>
+      <c r="H5" s="703"/>
+      <c r="I5" s="703"/>
+      <c r="J5" s="703"/>
+      <c r="K5" s="703"/>
+      <c r="L5" s="703"/>
       <c r="M5" s="365"/>
       <c r="N5" s="4"/>
       <c r="O5" s="22"/>
@@ -11689,18 +11689,18 @@
     <row r="7" spans="1:15" ht="18" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="358"/>
-      <c r="C7" s="690" t="s">
+      <c r="C7" s="698" t="s">
         <v>259</v>
       </c>
-      <c r="D7" s="691"/>
-      <c r="E7" s="691"/>
-      <c r="F7" s="691"/>
-      <c r="G7" s="691"/>
-      <c r="H7" s="691"/>
-      <c r="I7" s="691"/>
-      <c r="J7" s="691"/>
-      <c r="K7" s="691"/>
-      <c r="L7" s="691"/>
+      <c r="D7" s="699"/>
+      <c r="E7" s="699"/>
+      <c r="F7" s="699"/>
+      <c r="G7" s="699"/>
+      <c r="H7" s="699"/>
+      <c r="I7" s="699"/>
+      <c r="J7" s="699"/>
+      <c r="K7" s="699"/>
+      <c r="L7" s="699"/>
       <c r="M7" s="328"/>
       <c r="O7" s="22"/>
     </row>
@@ -11724,21 +11724,21 @@
       <c r="A9" s="4"/>
       <c r="B9" s="358"/>
       <c r="C9" s="388"/>
-      <c r="D9" s="688" t="s">
+      <c r="D9" s="696" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="689"/>
-      <c r="F9" s="689"/>
-      <c r="G9" s="688" t="s">
+      <c r="E9" s="697"/>
+      <c r="F9" s="697"/>
+      <c r="G9" s="696" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="689"/>
-      <c r="I9" s="689"/>
-      <c r="J9" s="688" t="s">
+      <c r="H9" s="697"/>
+      <c r="I9" s="697"/>
+      <c r="J9" s="696" t="s">
         <v>138</v>
       </c>
-      <c r="K9" s="689"/>
-      <c r="L9" s="689"/>
+      <c r="K9" s="697"/>
+      <c r="L9" s="697"/>
       <c r="M9" s="328"/>
       <c r="O9" s="22"/>
     </row>
@@ -12934,13 +12934,13 @@
     </row>
     <row r="3" spans="2:20" ht="18">
       <c r="B3" s="479"/>
-      <c r="C3" s="702" t="str">
+      <c r="C3" s="710" t="str">
         <f>Ingressos!C2</f>
         <v xml:space="preserve">EMPRESA: </v>
       </c>
-      <c r="D3" s="703"/>
-      <c r="E3" s="703"/>
-      <c r="F3" s="703"/>
+      <c r="D3" s="711"/>
+      <c r="E3" s="711"/>
+      <c r="F3" s="711"/>
       <c r="G3" s="4"/>
       <c r="H3" s="20"/>
       <c r="I3" s="4"/>
@@ -12993,23 +12993,23 @@
     </row>
     <row r="6" spans="2:20" ht="21.75" thickBot="1">
       <c r="B6" s="479"/>
-      <c r="C6" s="699" t="s">
+      <c r="C6" s="707" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="700"/>
-      <c r="E6" s="700"/>
-      <c r="F6" s="700"/>
-      <c r="G6" s="700"/>
-      <c r="H6" s="700"/>
-      <c r="I6" s="700"/>
-      <c r="J6" s="700"/>
-      <c r="K6" s="700"/>
-      <c r="L6" s="700"/>
-      <c r="M6" s="700"/>
-      <c r="N6" s="700"/>
-      <c r="O6" s="700"/>
-      <c r="P6" s="700"/>
-      <c r="Q6" s="701"/>
+      <c r="D6" s="708"/>
+      <c r="E6" s="708"/>
+      <c r="F6" s="708"/>
+      <c r="G6" s="708"/>
+      <c r="H6" s="708"/>
+      <c r="I6" s="708"/>
+      <c r="J6" s="708"/>
+      <c r="K6" s="708"/>
+      <c r="L6" s="708"/>
+      <c r="M6" s="708"/>
+      <c r="N6" s="708"/>
+      <c r="O6" s="708"/>
+      <c r="P6" s="708"/>
+      <c r="Q6" s="709"/>
       <c r="R6" s="469"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
@@ -14216,23 +14216,23 @@
     </row>
     <row r="31" spans="2:20" s="48" customFormat="1" ht="21" customHeight="1" thickBot="1">
       <c r="B31" s="480"/>
-      <c r="C31" s="696" t="s">
+      <c r="C31" s="704" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="697"/>
-      <c r="E31" s="697"/>
-      <c r="F31" s="697"/>
-      <c r="G31" s="697"/>
-      <c r="H31" s="697"/>
-      <c r="I31" s="697"/>
-      <c r="J31" s="697"/>
-      <c r="K31" s="697"/>
-      <c r="L31" s="697"/>
-      <c r="M31" s="697"/>
-      <c r="N31" s="697"/>
-      <c r="O31" s="697"/>
-      <c r="P31" s="697"/>
-      <c r="Q31" s="698"/>
+      <c r="D31" s="705"/>
+      <c r="E31" s="705"/>
+      <c r="F31" s="705"/>
+      <c r="G31" s="705"/>
+      <c r="H31" s="705"/>
+      <c r="I31" s="705"/>
+      <c r="J31" s="705"/>
+      <c r="K31" s="705"/>
+      <c r="L31" s="705"/>
+      <c r="M31" s="705"/>
+      <c r="N31" s="705"/>
+      <c r="O31" s="705"/>
+      <c r="P31" s="705"/>
+      <c r="Q31" s="706"/>
       <c r="R31" s="470"/>
     </row>
     <row r="32" spans="2:20" s="37" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
@@ -15523,13 +15523,13 @@
     </row>
     <row r="3" spans="2:19" ht="18">
       <c r="B3" s="505"/>
-      <c r="C3" s="704" t="str">
+      <c r="C3" s="712" t="str">
         <f>Ingressos!C2</f>
         <v xml:space="preserve">EMPRESA: </v>
       </c>
-      <c r="D3" s="705"/>
-      <c r="E3" s="705"/>
-      <c r="F3" s="705"/>
+      <c r="D3" s="713"/>
+      <c r="E3" s="713"/>
+      <c r="F3" s="713"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -15585,20 +15585,20 @@
     </row>
     <row r="6" spans="2:19" ht="21" thickBot="1">
       <c r="B6" s="505"/>
-      <c r="C6" s="706" t="s">
+      <c r="C6" s="714" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="707"/>
-      <c r="E6" s="707"/>
-      <c r="F6" s="708"/>
+      <c r="D6" s="715"/>
+      <c r="E6" s="715"/>
+      <c r="F6" s="716"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="709" t="s">
+      <c r="H6" s="717" t="s">
         <v>199</v>
       </c>
-      <c r="I6" s="710"/>
-      <c r="J6" s="710"/>
-      <c r="K6" s="710"/>
-      <c r="L6" s="711"/>
+      <c r="I6" s="718"/>
+      <c r="J6" s="718"/>
+      <c r="K6" s="718"/>
+      <c r="L6" s="719"/>
       <c r="M6" s="495"/>
       <c r="N6" s="4"/>
       <c r="O6" s="31"/>
@@ -16383,19 +16383,19 @@
     </row>
     <row r="31" spans="2:19" ht="21" thickBot="1">
       <c r="B31" s="505"/>
-      <c r="C31" s="712" t="s">
+      <c r="C31" s="720" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="707"/>
-      <c r="E31" s="707"/>
-      <c r="F31" s="708"/>
-      <c r="H31" s="718" t="s">
+      <c r="D31" s="715"/>
+      <c r="E31" s="715"/>
+      <c r="F31" s="716"/>
+      <c r="H31" s="726" t="s">
         <v>203</v>
       </c>
-      <c r="I31" s="697"/>
-      <c r="J31" s="697"/>
-      <c r="K31" s="697"/>
-      <c r="L31" s="698"/>
+      <c r="I31" s="705"/>
+      <c r="J31" s="705"/>
+      <c r="K31" s="705"/>
+      <c r="L31" s="706"/>
       <c r="M31" s="497"/>
       <c r="O31" s="492"/>
       <c r="Q31" s="4"/>
@@ -16424,15 +16424,15 @@
       <c r="C33" s="531" t="s">
         <v>195</v>
       </c>
-      <c r="D33" s="714">
+      <c r="D33" s="722">
         <f>IF(D26=0,0,(D16+D17+D18+D19+D21)/D26)</f>
         <v>180816.29659857941</v>
       </c>
-      <c r="E33" s="714">
+      <c r="E33" s="722">
         <f>IF(E26=0,0,(E16+E17+E18+E19+E21)/E26)</f>
         <v>204659.38958549642</v>
       </c>
-      <c r="F33" s="716">
+      <c r="F33" s="724">
         <f>IF(F26=0,0,(F16+F17+F18+F19+F21)/F26)</f>
         <v>233090.79046922494</v>
       </c>
@@ -16457,9 +16457,9 @@
       <c r="C34" s="532" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="715"/>
-      <c r="E34" s="715"/>
-      <c r="F34" s="717"/>
+      <c r="D34" s="723"/>
+      <c r="E34" s="723"/>
+      <c r="F34" s="725"/>
       <c r="H34" s="546" t="s">
         <v>79</v>
       </c>
@@ -16518,19 +16518,19 @@
     </row>
     <row r="39" spans="2:20" ht="20.25" customHeight="1" thickBot="1">
       <c r="B39" s="505"/>
-      <c r="C39" s="713" t="s">
+      <c r="C39" s="721" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="707"/>
-      <c r="E39" s="707"/>
-      <c r="F39" s="708"/>
-      <c r="H39" s="719" t="s">
+      <c r="D39" s="715"/>
+      <c r="E39" s="715"/>
+      <c r="F39" s="716"/>
+      <c r="H39" s="727" t="s">
         <v>233</v>
       </c>
-      <c r="I39" s="707"/>
-      <c r="J39" s="707"/>
-      <c r="K39" s="707"/>
-      <c r="L39" s="708"/>
+      <c r="I39" s="715"/>
+      <c r="J39" s="715"/>
+      <c r="K39" s="715"/>
+      <c r="L39" s="716"/>
       <c r="M39" s="495"/>
       <c r="N39" s="4"/>
       <c r="Q39" s="4"/>
@@ -16920,12 +16920,12 @@
     </row>
     <row r="3" spans="2:12" ht="18">
       <c r="B3" s="327"/>
-      <c r="C3" s="723" t="str">
+      <c r="C3" s="731" t="str">
         <f>'Inversió inicial'!C2</f>
         <v xml:space="preserve">EMPRESA: </v>
       </c>
-      <c r="D3" s="724"/>
-      <c r="E3" s="724"/>
+      <c r="D3" s="732"/>
+      <c r="E3" s="732"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="356"/>
@@ -16956,13 +16956,13 @@
     </row>
     <row r="6" spans="2:12" ht="21" thickBot="1">
       <c r="B6" s="327"/>
-      <c r="C6" s="720" t="s">
+      <c r="C6" s="728" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="721"/>
-      <c r="E6" s="721"/>
-      <c r="F6" s="721"/>
-      <c r="G6" s="722"/>
+      <c r="D6" s="729"/>
+      <c r="E6" s="729"/>
+      <c r="F6" s="729"/>
+      <c r="G6" s="730"/>
       <c r="H6" s="356"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -17597,13 +17597,13 @@
     </row>
     <row r="4" spans="1:10" ht="12.75" customHeight="1" thickBot="1"/>
     <row r="5" spans="1:10" ht="21" thickBot="1">
-      <c r="A5" s="725" t="s">
+      <c r="A5" s="733" t="s">
         <v>220</v>
       </c>
-      <c r="B5" s="726"/>
-      <c r="C5" s="726"/>
-      <c r="D5" s="726"/>
-      <c r="E5" s="727"/>
+      <c r="B5" s="734"/>
+      <c r="C5" s="734"/>
+      <c r="D5" s="734"/>
+      <c r="E5" s="735"/>
       <c r="F5" s="80"/>
       <c r="G5" s="80"/>
     </row>
@@ -22019,40 +22019,40 @@
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="122"/>
-      <c r="B69" s="729" t="s">
+      <c r="B69" s="737" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="729"/>
-      <c r="D69" s="729"/>
-      <c r="E69" s="729"/>
+      <c r="C69" s="737"/>
+      <c r="D69" s="737"/>
+      <c r="E69" s="737"/>
       <c r="F69" s="122"/>
-      <c r="G69" s="729" t="s">
-        <v>0</v>
-      </c>
-      <c r="H69" s="729"/>
-      <c r="I69" s="729"/>
-      <c r="J69" s="729"/>
+      <c r="G69" s="737" t="s">
+        <v>0</v>
+      </c>
+      <c r="H69" s="737"/>
+      <c r="I69" s="737"/>
+      <c r="J69" s="737"/>
       <c r="K69" s="122"/>
-      <c r="L69" s="729" t="s">
+      <c r="L69" s="737" t="s">
         <v>40</v>
       </c>
-      <c r="M69" s="729"/>
-      <c r="N69" s="729"/>
-      <c r="O69" s="729"/>
+      <c r="M69" s="737"/>
+      <c r="N69" s="737"/>
+      <c r="O69" s="737"/>
       <c r="P69" s="101"/>
-      <c r="Q69" s="728" t="s">
+      <c r="Q69" s="736" t="s">
         <v>66</v>
       </c>
-      <c r="R69" s="728"/>
-      <c r="S69" s="728"/>
-      <c r="T69" s="728"/>
+      <c r="R69" s="736"/>
+      <c r="S69" s="736"/>
+      <c r="T69" s="736"/>
       <c r="U69" s="101"/>
-      <c r="V69" s="728" t="s">
+      <c r="V69" s="736" t="s">
         <v>67</v>
       </c>
-      <c r="W69" s="728"/>
-      <c r="X69" s="728"/>
-      <c r="Y69" s="728"/>
+      <c r="W69" s="736"/>
+      <c r="X69" s="736"/>
+      <c r="Y69" s="736"/>
       <c r="Z69" s="101"/>
       <c r="AA69" s="101"/>
       <c r="AB69" s="101"/>
@@ -24006,40 +24006,40 @@
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="132"/>
-      <c r="B96" s="729" t="s">
+      <c r="B96" s="737" t="s">
         <v>46</v>
       </c>
-      <c r="C96" s="729"/>
-      <c r="D96" s="729"/>
-      <c r="E96" s="729"/>
+      <c r="C96" s="737"/>
+      <c r="D96" s="737"/>
+      <c r="E96" s="737"/>
       <c r="F96" s="122"/>
-      <c r="G96" s="729" t="s">
-        <v>0</v>
-      </c>
-      <c r="H96" s="729"/>
-      <c r="I96" s="729"/>
-      <c r="J96" s="729"/>
+      <c r="G96" s="737" t="s">
+        <v>0</v>
+      </c>
+      <c r="H96" s="737"/>
+      <c r="I96" s="737"/>
+      <c r="J96" s="737"/>
       <c r="K96" s="122"/>
-      <c r="L96" s="729" t="s">
+      <c r="L96" s="737" t="s">
         <v>40</v>
       </c>
-      <c r="M96" s="729"/>
-      <c r="N96" s="729"/>
-      <c r="O96" s="729"/>
+      <c r="M96" s="737"/>
+      <c r="N96" s="737"/>
+      <c r="O96" s="737"/>
       <c r="P96" s="101"/>
-      <c r="Q96" s="728" t="s">
+      <c r="Q96" s="736" t="s">
         <v>66</v>
       </c>
-      <c r="R96" s="728"/>
-      <c r="S96" s="728"/>
-      <c r="T96" s="728"/>
+      <c r="R96" s="736"/>
+      <c r="S96" s="736"/>
+      <c r="T96" s="736"/>
       <c r="U96" s="101"/>
-      <c r="V96" s="728" t="s">
+      <c r="V96" s="736" t="s">
         <v>67</v>
       </c>
-      <c r="W96" s="728"/>
-      <c r="X96" s="728"/>
-      <c r="Y96" s="728"/>
+      <c r="W96" s="736"/>
+      <c r="X96" s="736"/>
+      <c r="Y96" s="736"/>
       <c r="AA96" s="101"/>
       <c r="AB96" s="101"/>
       <c r="AC96" s="101"/>
@@ -25396,40 +25396,40 @@
       <c r="AJ122" s="101"/>
     </row>
     <row r="123" spans="1:36">
-      <c r="C123" s="729" t="s">
+      <c r="C123" s="737" t="s">
         <v>46</v>
       </c>
-      <c r="D123" s="729"/>
-      <c r="E123" s="729"/>
-      <c r="F123" s="729"/>
+      <c r="D123" s="737"/>
+      <c r="E123" s="737"/>
+      <c r="F123" s="737"/>
       <c r="G123" s="122"/>
-      <c r="H123" s="729" t="s">
-        <v>0</v>
-      </c>
-      <c r="I123" s="729"/>
-      <c r="J123" s="729"/>
-      <c r="K123" s="729"/>
+      <c r="H123" s="737" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" s="737"/>
+      <c r="J123" s="737"/>
+      <c r="K123" s="737"/>
       <c r="L123" s="122"/>
-      <c r="M123" s="729" t="s">
+      <c r="M123" s="737" t="s">
         <v>40</v>
       </c>
-      <c r="N123" s="729"/>
-      <c r="O123" s="729"/>
-      <c r="P123" s="729"/>
+      <c r="N123" s="737"/>
+      <c r="O123" s="737"/>
+      <c r="P123" s="737"/>
       <c r="Q123" s="101"/>
-      <c r="R123" s="728" t="s">
+      <c r="R123" s="736" t="s">
         <v>66</v>
       </c>
-      <c r="S123" s="728"/>
-      <c r="T123" s="728"/>
-      <c r="U123" s="728"/>
+      <c r="S123" s="736"/>
+      <c r="T123" s="736"/>
+      <c r="U123" s="736"/>
       <c r="V123" s="101"/>
-      <c r="W123" s="728" t="s">
+      <c r="W123" s="736" t="s">
         <v>67</v>
       </c>
-      <c r="X123" s="728"/>
-      <c r="Y123" s="728"/>
-      <c r="Z123" s="728"/>
+      <c r="X123" s="736"/>
+      <c r="Y123" s="736"/>
+      <c r="Z123" s="736"/>
       <c r="AJ123" s="101"/>
     </row>
     <row r="124" spans="1:36">
@@ -28911,6 +28911,11 @@
   </sheetData>
   <sheetProtection password="DC6F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
+    <mergeCell ref="W123:Z123"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="M123:P123"/>
+    <mergeCell ref="R123:U123"/>
     <mergeCell ref="V96:Y96"/>
     <mergeCell ref="B69:E69"/>
     <mergeCell ref="G69:J69"/>
@@ -28921,11 +28926,6 @@
     <mergeCell ref="G96:J96"/>
     <mergeCell ref="L96:O96"/>
     <mergeCell ref="Q96:T96"/>
-    <mergeCell ref="W123:Z123"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="H123:K123"/>
-    <mergeCell ref="M123:P123"/>
-    <mergeCell ref="R123:U123"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
